--- a/clustered_skeleton/HIAC-DPC/Zhang-Suen/HIAC-info/parameter-hiac.xlsx
+++ b/clustered_skeleton/HIAC-DPC/Zhang-Suen/HIAC-info/parameter-hiac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRG\SVNCKH 3-2024\clustered_skeleton\HIAC-DPC\HIAC-info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRG\SVNCKH 3-2024\clustered_skeleton\HIAC-DPC\Zhang-Suen\HIAC-info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>k</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>1C8-9-3</t>
+  </si>
+  <si>
+    <t>Zhang Suen RUC Net</t>
   </si>
 </sst>
 </file>
@@ -168,15 +171,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -458,297 +464,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:H23"/>
+  <dimension ref="D1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>0.7</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>0.96950000000000003</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>0.7</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>1.089</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>1.0174000000000001</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>0.7</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0.7</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
         <v>1.0886</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>0.7</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>1.0219</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>0.7</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>0.7</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
         <v>1.0093000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>0.7</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
         <v>1.0166999999999999</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>0.7</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
         <v>1.0978000000000001</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>0.7</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>0.7</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
         <v>1.0034000000000001</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>0.7</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>0.7</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
         <v>0.96989999999999998</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>0.7</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>0.7</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
         <v>0.96860000000000002</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>0.7</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>0.7</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
         <v>1.0624</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>0.7</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>1.0254000000000001</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -760,12 +769,12 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>1.0244</v>
+        <v>1.0254000000000001</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>30</v>
@@ -777,12 +786,12 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>0.99099999999999999</v>
+        <v>1.0244</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>30</v>
@@ -794,12 +803,12 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>1.0308999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>30</v>
@@ -811,12 +820,12 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>0.99619999999999997</v>
+        <v>1.0308999999999999</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>30</v>
@@ -828,29 +837,47 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>0.98399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>0.7</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23">
-        <v>0.7</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>0.7</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
         <v>0.99250000000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
